--- a/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2614976047965388</v>
+        <v>0.1876111210088451</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2929255806751611</v>
+        <v>-0.3726640409155095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.093704749552786</v>
+        <v>-1.028316680836557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.742714499291885</v>
+        <v>-2.760213089037657</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2277236049499401</v>
+        <v>-0.2854081672109076</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.512540934903253</v>
+        <v>-1.434217954702775</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.267766535990724</v>
+        <v>2.055876421516158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.489734899947765</v>
+        <v>1.368919638272737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.404534739810154</v>
+        <v>1.460500041409201</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8538692664138209</v>
+        <v>-0.7819061106026081</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.340361636876892</v>
+        <v>1.379860805555038</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.1725467243296898</v>
+        <v>-0.1121081337052712</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1198870778306843</v>
+        <v>-0.01601763031175879</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4205759943584006</v>
+        <v>-0.5266806610209446</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3473528903002894</v>
+        <v>-0.3593825309927584</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9024855244772537</v>
+        <v>-0.9109483815661779</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1412259160634796</v>
+        <v>-0.1399496552192707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7528441326356812</v>
+        <v>-0.7330750319624937</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.748286835754077</v>
+        <v>6.133156177951972</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.662890419407317</v>
+        <v>3.72597410327394</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.850580396342046</v>
+        <v>0.8338722299100841</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.4121589658627664</v>
+        <v>-0.339443375810955</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.085034172096197</v>
+        <v>1.144229888437883</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03391453128338064</v>
+        <v>-0.07091574693064655</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6116864740190061</v>
+        <v>-0.7834493644816254</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.37755593415829</v>
+        <v>-2.320740537876448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.747804504336927</v>
+        <v>-3.693058784843089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.358508860073448</v>
+        <v>-8.235062259605828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.78340777133642</v>
+        <v>-1.824588182054754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.798585458108736</v>
+        <v>-4.745271907183492</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.373005705006911</v>
+        <v>1.324211823867041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.65052208832297</v>
+        <v>-0.6456084896999691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1359925189634329</v>
+        <v>0.3668294846469985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.679392538376348</v>
+        <v>-4.628732890658307</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3358515342789528</v>
+        <v>0.2680097968948935</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.842499049046454</v>
+        <v>-2.862482414552106</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2323126649693333</v>
+        <v>-0.2825192174415088</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8086101473846732</v>
+        <v>-0.8106879383127582</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3267456929909608</v>
+        <v>-0.3164466920016386</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6956119840995613</v>
+        <v>-0.6938075817549457</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2631802602673802</v>
+        <v>-0.2671732008080459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6920374202151814</v>
+        <v>-0.692635778719479</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7929110257320557</v>
+        <v>0.7329737878218783</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3519235074180393</v>
+        <v>-0.3299184464544286</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01618009996907225</v>
+        <v>0.03874789490851839</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.4837343656343104</v>
+        <v>-0.4870303269609378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05555339772169414</v>
+        <v>0.04489420031706749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5011734614385743</v>
+        <v>-0.503685772220667</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.930555131015645</v>
+        <v>-2.842904433420069</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.62409012922144</v>
+        <v>-4.747079852172844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.416108672804431</v>
+        <v>-1.965073524396505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.51189527536595</v>
+        <v>-11.3665456041938</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.175515100972917</v>
+        <v>-0.958164163862432</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.724408723642732</v>
+        <v>-6.84553108225167</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.506187220063162</v>
+        <v>2.315746862858413</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.6485071517286592</v>
+        <v>-0.6354345231548955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.66698317336255</v>
+        <v>7.930872546657859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.937009821254962</v>
+        <v>-3.839788368058587</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.441641639654152</v>
+        <v>4.417909995752823</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.484390333734902</v>
+        <v>-2.649559708660267</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5691397247601645</v>
+        <v>-0.548570661424452</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8707952057442691</v>
+        <v>-0.8740075177826084</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1602001989292454</v>
+        <v>-0.140118004778716</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7254068072538072</v>
+        <v>-0.7210995673394978</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1274626964378255</v>
+        <v>-0.1059820068063618</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7033755696305074</v>
+        <v>-0.7038949710865352</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9774747527605077</v>
+        <v>0.9229280545722656</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1739084504432944</v>
+        <v>-0.1516898523257872</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6758152710503329</v>
+        <v>0.6957257105900633</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3375458368024652</v>
+        <v>-0.3465632374913903</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6102766476277696</v>
+        <v>0.6357253519114139</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3475843131524227</v>
+        <v>-0.3639326972252581</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1917986722677391</v>
+        <v>-0.2118088604321736</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.618551475460117</v>
+        <v>-1.635925847912021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.612078415422736</v>
+        <v>-1.770282582170963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.407447275926136</v>
+        <v>-5.449802953971744</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7874396161402437</v>
+        <v>-0.6497262582540341</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.379525973638192</v>
+        <v>-3.346235302697532</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.25553093097965</v>
+        <v>1.254997468910438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.4228404519165449</v>
+        <v>-0.4561241626309503</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9228119447041704</v>
+        <v>0.8749690429726247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.29122808957515</v>
+        <v>-3.260970634216783</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8073652961444476</v>
+        <v>0.8448429896840434</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.102787808039957</v>
+        <v>-2.101587647202541</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08435171807851916</v>
+        <v>-0.1017438393167538</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6905247602812826</v>
+        <v>-0.6875973773964051</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1935056087200532</v>
+        <v>-0.2077759594242785</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6359459356108152</v>
+        <v>-0.6368129068138244</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1443690202690568</v>
+        <v>-0.1227839604535131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6283378196565726</v>
+        <v>-0.6235584137443112</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7577409240295855</v>
+        <v>0.7594631917681725</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2116965904594255</v>
+        <v>-0.2717119972545352</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1312386736860505</v>
+        <v>0.1230307111638441</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.4489228768181862</v>
+        <v>-0.4471327425978645</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1777392452631385</v>
+        <v>0.1809124366018404</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4576594519793352</v>
+        <v>-0.4522703095979981</v>
       </c>
     </row>
     <row r="28">
